--- a/biology/Médecine/Mal_de_Pott/Mal_de_Pott.xlsx
+++ b/biology/Médecine/Mal_de_Pott/Mal_de_Pott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mal de Pott est une spondylodiscite, c'est-à-dire une infection d'un disque intervertébral ou des corps vertébraux adjacents, due au bacille de la tuberculose. Il s'agit d'une urgence médicale qui nécessite une prise en charge rapide, une antibiothérapie lourde et longue (12 mois de traitement) et parfois un traitement chirurgical orthopédique. Sa dénomination provient du chirurgien britannique Percivall Pott, connu pour ses travaux sur cette maladie.
 Il représente 50 % des manifestations de la tuberculose ostéoarticulaire. La contamination est hématogène.
@@ -512,7 +524,9 @@
           <t>Signes cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Altération de l'état général
 Douleur rachidienne au niveau de la charnière dorso-lombaire dans 90 % des cas, très localisée, à type inflammatoire, que l'on réveille à la palpation d'une ou deux épineuses
@@ -551,7 +565,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traitement antituberculeux (18- 24 mois)
 Immobilisation par corset
@@ -583,9 +599,11 @@
           <t>Classification CIM</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification CIM 10[1], le mal de Pott a le code : A18.0 + M49.0*
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification CIM 10, le mal de Pott a le code : A18.0 + M49.0*
 </t>
         </is>
       </c>
